--- a/biology/Zoologie/Eumorpha_typhon/Eumorpha_typhon.xlsx
+++ b/biology/Zoologie/Eumorpha_typhon/Eumorpha_typhon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumorpha typhon est une espèce d'insectes lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Philampelini et du genre Eumorpha.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 57 à 64 mm. La partie supérieure des ailes est brun rouge foncé avec des bandes brun pâle. Chaque aile postérieure a une tache rose le long de la marge costale et une tache blanche triangulaire sur la partie externe de la marge interne.
 			Face dorsale de la femelle (coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit au Honduras, au nord à travers le Mexique jusqu'au sud de l'Arizona.
 </t>
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent de juin à août dans la partie  Les adultes se nourrissent du nectar de diverses fleurs.
 Les chenilles se nourrissent de diverses espèces de vignes. La métamorphose a lieu dans un sol peu profond.
@@ -607,13 +625,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Eumorpha typhon a été décrite par le naturaliste Johann Christoph Friedrich Klug en 1836 sous le nom initial de Sphinx typhon[1].
-La localité type est le Mexique.
-Synonymie
-Sphinx typhon Klug, 1836 protonyme
-Philampelus typhon Godman &amp; Salvin, 1881 [2]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Eumorpha typhon a été décrite par le naturaliste Johann Christoph Friedrich Klug en 1836 sous le nom initial de Sphinx typhon.
+La localité type est le Mexique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eumorpha_typhon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eumorpha_typhon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sphinx typhon Klug, 1836 protonyme
+Philampelus typhon Godman &amp; Salvin, 1881 </t>
         </is>
       </c>
     </row>
